--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdArea.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdArea.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05929D55-580F-4DBD-B985-DA33D9C2FD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114E37DA-163F-4BBE-B56A-AA55CCC40284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -261,10 +270,6 @@
   </si>
   <si>
     <t xml:space="preserve">CityCode &gt;= ,AND CityCode &lt;= ,AND AreaCode &gt;= ,AND AreaCode &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.北, B.中, C.南, D.東</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -359,6 +364,13 @@
 W:金門縣
 X:澎湖縣
 Z:連江縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:北
+B:中
+C:南
+D:東</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -989,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1013,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="19"/>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
@@ -1126,7 +1138,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>9</v>
@@ -1136,7 +1148,7 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1148,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>9</v>
@@ -1233,10 +1245,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>9</v>
@@ -1246,7 +1258,7 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1255,10 +1267,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -1268,7 +1280,7 @@
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1299,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>34</v>
@@ -1334,10 +1346,10 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64.8">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1356,7 +1368,7 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1528,24 +1540,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
